--- a/etapa2/ARQ1/excel_file0.xlsx
+++ b/etapa2/ARQ1/excel_file0.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,10 +428,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -439,13 +439,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -453,13 +450,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -467,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -475,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -483,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>141</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -491,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -499,6 +493,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>255</v>
       </c>
     </row>
